--- a/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>95.88501596462964</v>
+        <v>92.6479999884687</v>
       </c>
       <c r="D2" t="n">
-        <v>13.48167301017413</v>
+        <v>12.59458966285905</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.27326046470074</v>
+        <v>89.94220213586728</v>
       </c>
       <c r="D3" t="n">
-        <v>12.32786369178085</v>
+        <v>13.05890987752554</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.76894580505508</v>
+        <v>91.66037861852853</v>
       </c>
       <c r="D4" t="n">
-        <v>14.77455440411555</v>
+        <v>12.29297975821248</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.10371579657937</v>
+        <v>89.24624539114406</v>
       </c>
       <c r="D5" t="n">
-        <v>13.19737281075543</v>
+        <v>11.89846769381163</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.68464991331402</v>
+        <v>89.86384220335118</v>
       </c>
       <c r="D6" t="n">
-        <v>14.21168085680707</v>
+        <v>11.19949266147343</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.26008671468442</v>
+        <v>88.28544028011127</v>
       </c>
       <c r="D7" t="n">
-        <v>12.98142837651797</v>
+        <v>11.86871505628031</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>90.64271454181817</v>
+        <v>86.20642651935192</v>
       </c>
       <c r="D8" t="n">
-        <v>13.00140086531093</v>
+        <v>12.50375141338593</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.22674805913879</v>
+        <v>85.9578433354833</v>
       </c>
       <c r="D9" t="n">
-        <v>13.1274402984365</v>
+        <v>12.08485462828292</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.62272234500064</v>
+        <v>82.80093613808818</v>
       </c>
       <c r="D10" t="n">
-        <v>14.21334362855736</v>
+        <v>12.31684988549168</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.04851821774477</v>
+        <v>82.98688231390238</v>
       </c>
       <c r="D11" t="n">
-        <v>12.51677727931508</v>
+        <v>12.22684016336599</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.57995158140297</v>
+        <v>81.42240111263436</v>
       </c>
       <c r="D12" t="n">
-        <v>13.19377930220491</v>
+        <v>13.37256384632701</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.25193300458226</v>
+        <v>80.4042797989518</v>
       </c>
       <c r="D13" t="n">
-        <v>13.51117298349987</v>
+        <v>11.83548587127537</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.38814539123491</v>
+        <v>79.39520016187126</v>
       </c>
       <c r="D14" t="n">
-        <v>13.49505413210758</v>
+        <v>10.85549976169379</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.35600619815619</v>
+        <v>77.80573760724147</v>
       </c>
       <c r="D15" t="n">
-        <v>12.51743357245225</v>
+        <v>11.53996746020687</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.51551592411307</v>
+        <v>77.99885169484661</v>
       </c>
       <c r="D16" t="n">
-        <v>12.27114331538282</v>
+        <v>12.02820194545504</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.07412134129675</v>
+        <v>77.00727242148781</v>
       </c>
       <c r="D17" t="n">
-        <v>12.12931477405964</v>
+        <v>11.89647562262482</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.62622800339815</v>
+        <v>76.54065675331596</v>
       </c>
       <c r="D18" t="n">
-        <v>12.2999047279357</v>
+        <v>12.04373462509591</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.34817451223419</v>
+        <v>76.05864829210788</v>
       </c>
       <c r="D19" t="n">
-        <v>13.32513616015612</v>
+        <v>12.47993694924938</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.49044514605647</v>
+        <v>75.64000911777448</v>
       </c>
       <c r="D20" t="n">
-        <v>13.19470674285847</v>
+        <v>12.50226883845818</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.61988200116075</v>
+        <v>73.48407697632082</v>
       </c>
       <c r="D21" t="n">
-        <v>11.71358374730307</v>
+        <v>12.95958962350216</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.62181838249765</v>
+        <v>71.7527173292281</v>
       </c>
       <c r="D22" t="n">
-        <v>13.50184957626968</v>
+        <v>11.41426531737306</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.58605727321192</v>
+        <v>71.00856219383201</v>
       </c>
       <c r="D23" t="n">
-        <v>13.14034308353473</v>
+        <v>13.24272288337262</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.70152962646716</v>
+        <v>70.97783027972119</v>
       </c>
       <c r="D24" t="n">
-        <v>11.85154605744867</v>
+        <v>13.31613103791438</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.9929188402789</v>
+        <v>67.11876220391242</v>
       </c>
       <c r="D25" t="n">
-        <v>11.7627944463816</v>
+        <v>12.62540208569793</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.39354460651882</v>
+        <v>67.37198621183563</v>
       </c>
       <c r="D26" t="n">
-        <v>14.09363749557687</v>
+        <v>11.91637849404199</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.44254729195814</v>
+        <v>66.10513730286145</v>
       </c>
       <c r="D27" t="n">
-        <v>12.39379106135951</v>
+        <v>12.31489182713088</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.37044385793526</v>
+        <v>64.6096498153866</v>
       </c>
       <c r="D28" t="n">
-        <v>11.01090217032074</v>
+        <v>12.08793664734747</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.43368207364828</v>
+        <v>64.58391811264769</v>
       </c>
       <c r="D29" t="n">
-        <v>12.45507428532976</v>
+        <v>11.25338101997002</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.79008187630649</v>
+        <v>64.03928390442998</v>
       </c>
       <c r="D30" t="n">
-        <v>12.14511231133467</v>
+        <v>11.31305236795349</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.55057862513926</v>
+        <v>61.12211168106948</v>
       </c>
       <c r="D31" t="n">
-        <v>13.75303571917515</v>
+        <v>11.84369188508156</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.04718530593216</v>
+        <v>62.45844336908083</v>
       </c>
       <c r="D32" t="n">
-        <v>13.68315164575961</v>
+        <v>12.90923310166772</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.23450237579063</v>
+        <v>61.85788529031444</v>
       </c>
       <c r="D33" t="n">
-        <v>13.62055581813988</v>
+        <v>13.34988263970659</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>55.62701474172192</v>
+        <v>59.57774601550852</v>
       </c>
       <c r="D34" t="n">
-        <v>11.16636329322281</v>
+        <v>11.84120529600748</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.46958104204867</v>
+        <v>57.41160818576866</v>
       </c>
       <c r="D35" t="n">
-        <v>12.52457428100709</v>
+        <v>12.82063889508383</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.55928676011973</v>
+        <v>56.42699510314169</v>
       </c>
       <c r="D36" t="n">
-        <v>13.70637119385841</v>
+        <v>12.87961454146384</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.96395678051793</v>
+        <v>56.35851958312063</v>
       </c>
       <c r="D37" t="n">
-        <v>13.91018164051959</v>
+        <v>12.1044751620252</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.18861158723914</v>
+        <v>53.6131999030849</v>
       </c>
       <c r="D38" t="n">
-        <v>13.98518173028725</v>
+        <v>11.90393482845174</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.04015555330479</v>
+        <v>54.99223780306983</v>
       </c>
       <c r="D39" t="n">
-        <v>12.29341365851049</v>
+        <v>11.42260121691087</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.63253952769527</v>
+        <v>51.07985431416784</v>
       </c>
       <c r="D40" t="n">
-        <v>12.86322063970962</v>
+        <v>13.02365746977391</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.71134686865824</v>
+        <v>51.03361850648236</v>
       </c>
       <c r="D41" t="n">
-        <v>12.54662158470166</v>
+        <v>11.09777775176818</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.95078663969</v>
+        <v>47.70018383327339</v>
       </c>
       <c r="D42" t="n">
-        <v>11.86825161024564</v>
+        <v>12.97377332088394</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.38762179681662</v>
+        <v>48.07485048467233</v>
       </c>
       <c r="D43" t="n">
-        <v>13.92089317571025</v>
+        <v>12.105619025889</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.23347276035728</v>
+        <v>46.72137805908719</v>
       </c>
       <c r="D44" t="n">
-        <v>13.86622207501122</v>
+        <v>11.33856603205137</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.81775709417989</v>
+        <v>47.42624526959351</v>
       </c>
       <c r="D45" t="n">
-        <v>12.69511840943751</v>
+        <v>11.36487295997316</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.77090129105392</v>
+        <v>47.37223717259915</v>
       </c>
       <c r="D46" t="n">
-        <v>11.47154541189979</v>
+        <v>11.02777467003766</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.69736954179743</v>
+        <v>44.09850694507041</v>
       </c>
       <c r="D47" t="n">
-        <v>13.16226022690278</v>
+        <v>12.01711168363422</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.13749771116561</v>
+        <v>44.08841697280542</v>
       </c>
       <c r="D48" t="n">
-        <v>13.01310041333836</v>
+        <v>12.27940685166299</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.25101005577041</v>
+        <v>44.59129903751835</v>
       </c>
       <c r="D49" t="n">
-        <v>13.03032393750111</v>
+        <v>12.31663162834537</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.23794390345111</v>
+        <v>42.84779633839107</v>
       </c>
       <c r="D50" t="n">
-        <v>11.85904782676914</v>
+        <v>13.00137744710387</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.86430149889001</v>
+        <v>41.54215072453829</v>
       </c>
       <c r="D51" t="n">
-        <v>12.61851321310446</v>
+        <v>11.13740307774003</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.2661928688112</v>
+        <v>38.42236774686589</v>
       </c>
       <c r="D52" t="n">
-        <v>12.56454298004993</v>
+        <v>12.69601459685954</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.72807161842634</v>
+        <v>40.38136802604167</v>
       </c>
       <c r="D53" t="n">
-        <v>11.41232240822574</v>
+        <v>11.02132893624544</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.89948561461348</v>
+        <v>38.05066575917761</v>
       </c>
       <c r="D54" t="n">
-        <v>12.03355859950108</v>
+        <v>10.93338649990685</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.88034736698724</v>
+        <v>35.18276012213202</v>
       </c>
       <c r="D55" t="n">
-        <v>12.93227464168058</v>
+        <v>12.55756772207696</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.15465089104838</v>
+        <v>35.70375800668619</v>
       </c>
       <c r="D56" t="n">
-        <v>11.18798738475237</v>
+        <v>11.57082056458575</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.07313649046555</v>
+        <v>34.3782566400041</v>
       </c>
       <c r="D57" t="n">
-        <v>13.82652040527631</v>
+        <v>13.71542651023673</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.1250222524643</v>
+        <v>34.29606261545682</v>
       </c>
       <c r="D58" t="n">
-        <v>12.15207125057944</v>
+        <v>11.47048227539285</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>36.19570447361937</v>
+        <v>33.02841315399078</v>
       </c>
       <c r="D59" t="n">
-        <v>12.06335689045944</v>
+        <v>12.70857039824271</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.47045699590945</v>
+        <v>32.53717212046662</v>
       </c>
       <c r="D60" t="n">
-        <v>13.32510885113085</v>
+        <v>11.44781411588484</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.02873230013179</v>
+        <v>32.39250179261128</v>
       </c>
       <c r="D61" t="n">
-        <v>13.27828433194633</v>
+        <v>11.78612278028442</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.35428039575318</v>
+        <v>30.28292278876883</v>
       </c>
       <c r="D62" t="n">
-        <v>12.49049035019306</v>
+        <v>10.39851642763342</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.12276383159774</v>
+        <v>28.06875853188251</v>
       </c>
       <c r="D63" t="n">
-        <v>11.0744443409872</v>
+        <v>11.37796597092772</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.27029036200614</v>
+        <v>29.92343490526104</v>
       </c>
       <c r="D64" t="n">
-        <v>12.78551240059205</v>
+        <v>12.80636542319962</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.5940173665383</v>
+        <v>26.63812497985279</v>
       </c>
       <c r="D65" t="n">
-        <v>12.30568262706002</v>
+        <v>12.33378447153259</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.27146945388883</v>
+        <v>24.98126745312008</v>
       </c>
       <c r="D66" t="n">
-        <v>12.44993319820789</v>
+        <v>12.41672836362</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.86389217124578</v>
+        <v>23.86736319821885</v>
       </c>
       <c r="D67" t="n">
-        <v>11.57380576201676</v>
+        <v>11.82480798075276</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.76044587809996</v>
+        <v>23.46463014410265</v>
       </c>
       <c r="D68" t="n">
-        <v>11.63237083588424</v>
+        <v>11.21276048679586</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.86361459604464</v>
+        <v>23.29522281928478</v>
       </c>
       <c r="D69" t="n">
-        <v>12.54709068856095</v>
+        <v>12.60988014523637</v>
       </c>
     </row>
   </sheetData>
